--- a/Documents/Philos FlashCards.xlsx
+++ b/Documents/Philos FlashCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/powerspots/GameStudio/WisdomSeekers/Mindscapes/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3EE108-5421-7848-8F16-7CDDE0F4C470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D668BA3C-3A93-F946-AF67-D501E739D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="1526">
   <si>
-    <t>Flashcard_No</t>
-  </si>
-  <si>
     <t>Concept</t>
   </si>
   <si>
@@ -4594,17 +4591,20 @@
     <t>The idea that one's identity transcends geography/politics, and that responsibilities or rights are derived from membership in humanity itself. Emphasizes global cooperation, peace, and concern for international justice and the well-being of people worldwide, regardless of national boundaries.</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>GDE_FIELD_NAMES</t>
+  </si>
+  <si>
+    <t>GDE_FIELD_TYPES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4615,6 +4615,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4638,12 +4644,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4865,11 +4872,12 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="83.83203125" customWidth="1"/>
@@ -4878,20 +4886,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4916,20 +4924,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1524</v>
+      <c r="A2" s="3" t="s">
+        <v>1525</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4958,16 +4966,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4996,16 +5004,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5034,16 +5042,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5072,16 +5080,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -5110,16 +5118,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5148,16 +5156,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5186,16 +5194,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5224,16 +5232,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5262,16 +5270,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5300,16 +5308,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5338,16 +5346,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5376,16 +5384,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5414,16 +5422,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -5452,16 +5460,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5490,16 +5498,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5528,16 +5536,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5566,16 +5574,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5604,16 +5612,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5642,16 +5650,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5680,16 +5688,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -5718,16 +5726,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -5756,16 +5764,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -5794,16 +5802,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -5832,16 +5840,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -5870,16 +5878,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -5908,16 +5916,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -5946,16 +5954,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -5984,16 +5992,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -6022,16 +6030,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -6060,16 +6068,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -6098,16 +6106,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -6136,16 +6144,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -6174,16 +6182,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -6212,16 +6220,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -6250,16 +6258,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -6288,16 +6296,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -6326,16 +6334,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -6364,16 +6372,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6402,16 +6410,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6440,16 +6448,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6478,16 +6486,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -6516,16 +6524,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -6554,16 +6562,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -6592,16 +6600,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -6630,16 +6638,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -6668,16 +6676,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6706,16 +6714,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6744,16 +6752,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -6782,16 +6790,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -6820,16 +6828,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -6858,16 +6866,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -6896,16 +6904,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -6934,16 +6942,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -6972,16 +6980,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -7010,16 +7018,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -7048,16 +7056,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -7086,16 +7094,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -7124,16 +7132,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -7162,16 +7170,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -7200,16 +7208,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -7238,16 +7246,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -7276,16 +7284,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -7314,16 +7322,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -7352,16 +7360,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -7390,16 +7398,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -7428,16 +7436,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -7466,16 +7474,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -7504,16 +7512,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -7542,16 +7550,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -7580,16 +7588,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -7618,16 +7626,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -7656,16 +7664,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -7694,16 +7702,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -7732,16 +7740,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -7770,16 +7778,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -7808,16 +7816,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -7846,16 +7854,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -7884,16 +7892,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -7922,16 +7930,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -7960,16 +7968,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -7998,16 +8006,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -8036,16 +8044,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8074,16 +8082,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8112,16 +8120,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -8150,16 +8158,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8188,16 +8196,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8226,16 +8234,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="E89" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8264,16 +8272,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8302,16 +8310,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -8340,16 +8348,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -8378,16 +8386,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -8416,16 +8424,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -8454,16 +8462,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -8492,16 +8500,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -8530,16 +8538,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -8568,16 +8576,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -8606,16 +8614,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -8644,16 +8652,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -8682,16 +8690,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -8720,16 +8728,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -8758,16 +8766,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -8796,16 +8804,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -8834,16 +8842,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -8872,16 +8880,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -8910,16 +8918,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -8948,16 +8956,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="D108" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -8986,16 +8994,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -9024,16 +9032,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -9062,16 +9070,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -9100,16 +9108,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -9138,16 +9146,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -9176,16 +9184,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -9214,16 +9222,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -9252,16 +9260,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -9290,16 +9298,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -9328,16 +9336,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -9366,16 +9374,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -9404,16 +9412,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -9442,16 +9450,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -9480,16 +9488,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -9518,16 +9526,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -9556,16 +9564,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -9594,16 +9602,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -9632,16 +9640,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -9670,16 +9678,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -9708,16 +9716,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -9746,16 +9754,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -9784,16 +9792,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -9822,16 +9830,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9860,16 +9868,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -9898,16 +9906,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -9936,16 +9944,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -9974,16 +9982,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -10012,16 +10020,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -10050,16 +10058,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -10088,16 +10096,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -10126,16 +10134,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -10164,16 +10172,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -10202,16 +10210,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="E141" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -10240,16 +10248,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -10278,16 +10286,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -10316,16 +10324,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -10354,16 +10362,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -10392,16 +10400,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -10430,16 +10438,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -10468,16 +10476,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -10506,16 +10514,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -10544,16 +10552,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -10582,16 +10590,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -10620,16 +10628,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -10658,16 +10666,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -10696,16 +10704,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -10734,16 +10742,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="E155" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -10772,16 +10780,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -10810,16 +10818,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -10848,16 +10856,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -10886,16 +10894,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -10924,16 +10932,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -10962,16 +10970,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -11000,16 +11008,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="E162" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -11038,16 +11046,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="E163" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -11076,16 +11084,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -11114,16 +11122,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -11152,16 +11160,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -11190,16 +11198,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -11228,16 +11236,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -11266,16 +11274,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -11304,16 +11312,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -11342,16 +11350,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -11380,16 +11388,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>641</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -11418,16 +11426,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -11456,16 +11464,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -11494,16 +11502,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="E175" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -11532,16 +11540,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -11570,16 +11578,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -11608,16 +11616,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -11646,16 +11654,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -11684,16 +11692,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -11722,16 +11730,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -11760,16 +11768,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -11798,16 +11806,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -11836,16 +11844,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -11874,16 +11882,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -11912,16 +11920,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -11950,16 +11958,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -11988,16 +11996,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>702</v>
-      </c>
       <c r="E188" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -12026,16 +12034,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>705</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -12064,16 +12072,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -12102,16 +12110,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -12140,16 +12148,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="E192" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -12178,16 +12186,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -12216,16 +12224,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="E194" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -12254,16 +12262,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -12292,16 +12300,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -12330,16 +12338,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>735</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -12368,16 +12376,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -12406,16 +12414,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>737</v>
-      </c>
       <c r="D199" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -12444,16 +12452,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -12482,16 +12490,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>748</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -12520,16 +12528,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -12558,16 +12566,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -12596,16 +12604,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -12634,16 +12642,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -12672,16 +12680,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>767</v>
-      </c>
       <c r="E206" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -12710,16 +12718,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -12748,16 +12756,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -12786,16 +12794,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -12824,16 +12832,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -12862,16 +12870,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -12900,16 +12908,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -12938,16 +12946,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -12976,16 +12984,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>797</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -13014,16 +13022,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -13052,16 +13060,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -13090,16 +13098,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -13128,16 +13136,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>812</v>
-      </c>
       <c r="E218" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -13166,16 +13174,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>816</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -13204,16 +13212,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -13242,16 +13250,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -13280,16 +13288,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>827</v>
-      </c>
       <c r="E222" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -13318,16 +13326,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -13356,16 +13364,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -13394,16 +13402,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -13432,16 +13440,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -13470,16 +13478,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>847</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -13508,16 +13516,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -13546,16 +13554,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -13584,16 +13592,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>857</v>
-      </c>
       <c r="E230" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -13622,16 +13630,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -13660,16 +13668,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -13698,16 +13706,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -13736,16 +13744,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -13774,16 +13782,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -13812,16 +13820,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>874</v>
-      </c>
       <c r="D236" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -13850,16 +13858,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="E237" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -13888,16 +13896,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -13926,16 +13934,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -13964,16 +13972,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -14002,16 +14010,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -14040,16 +14048,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -14078,16 +14086,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>905</v>
-      </c>
       <c r="E243" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -14116,16 +14124,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -14154,16 +14162,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>912</v>
-      </c>
       <c r="E245" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -14192,16 +14200,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C246" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -14230,16 +14238,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -14268,16 +14276,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="E248" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -14306,16 +14314,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -14344,16 +14352,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="E250" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -14382,16 +14390,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>931</v>
-      </c>
       <c r="E251" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -14420,16 +14428,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C252" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -14458,16 +14466,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -14496,16 +14504,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -14534,16 +14542,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -14572,13 +14580,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -14608,16 +14616,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -14646,16 +14654,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>956</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -14684,16 +14692,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -14722,16 +14730,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -14760,16 +14768,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -14798,16 +14806,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>971</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -14836,16 +14844,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -14874,16 +14882,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>979</v>
       </c>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -14912,16 +14920,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>982</v>
-      </c>
       <c r="E265" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -14950,16 +14958,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>986</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -14988,16 +14996,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -15026,16 +15034,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -15064,16 +15072,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -15102,16 +15110,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -15140,16 +15148,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>1004</v>
-      </c>
       <c r="E271" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -15178,16 +15186,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -15216,16 +15224,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -15254,16 +15262,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -15292,16 +15300,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -15330,16 +15338,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>1024</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -15368,16 +15376,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -15406,16 +15414,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -15444,16 +15452,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -15482,16 +15490,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -15520,16 +15528,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -15558,16 +15566,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -15596,16 +15604,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="E283" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -15634,16 +15642,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="E284" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -15672,16 +15680,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>1057</v>
-      </c>
       <c r="E285" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -15710,16 +15718,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -15748,16 +15756,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -15786,16 +15794,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>1069</v>
       </c>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -15824,16 +15832,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C289" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>1071</v>
-      </c>
       <c r="E289" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -15862,16 +15870,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C290" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -15900,16 +15908,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -15938,16 +15946,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -15976,16 +15984,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -16014,16 +16022,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="E294" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -16052,16 +16060,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -16090,16 +16098,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -16128,16 +16136,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -16166,16 +16174,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>1103</v>
-      </c>
       <c r="E298" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -16204,16 +16212,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="E299" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -16242,16 +16250,16 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>1110</v>
       </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -16280,16 +16288,16 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -16318,16 +16326,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>1118</v>
       </c>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -16356,16 +16364,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>1122</v>
       </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -16394,16 +16402,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="E304" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -16432,16 +16440,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>1129</v>
-      </c>
       <c r="E305" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -16470,16 +16478,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="E306" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -16508,16 +16516,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -16546,16 +16554,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="E308" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>1141</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -16584,16 +16592,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="E309" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -16622,16 +16630,16 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -16660,16 +16668,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -16698,16 +16706,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="E312" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -16736,16 +16744,16 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -16774,16 +16782,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>1165</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -16812,16 +16820,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="E315" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -16850,16 +16858,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1173</v>
       </c>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -16888,16 +16896,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>1177</v>
       </c>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -16926,16 +16934,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C318" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>1180</v>
       </c>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -16964,16 +16972,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -17002,16 +17010,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>1188</v>
       </c>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -17040,16 +17048,16 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>1192</v>
       </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -17078,16 +17086,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="E322" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>1196</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -17116,16 +17124,16 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -17154,16 +17162,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="E324" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>1204</v>
       </c>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -17192,16 +17200,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="E325" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>1208</v>
       </c>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -17230,16 +17238,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>1212</v>
       </c>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -17268,16 +17276,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -17306,16 +17314,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>1219</v>
-      </c>
       <c r="E328" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -17344,16 +17352,16 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="E329" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>1223</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -17382,16 +17390,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>1226</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>1227</v>
       </c>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -17420,16 +17428,16 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="E331" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>1231</v>
       </c>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -17458,16 +17466,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="E332" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>1235</v>
       </c>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -17496,16 +17504,16 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>1239</v>
       </c>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -17534,16 +17542,16 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="E334" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>1243</v>
       </c>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -17572,16 +17580,16 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>1247</v>
       </c>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -17610,16 +17618,16 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>1250</v>
-      </c>
       <c r="E336" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -17648,16 +17656,16 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>1254</v>
       </c>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -17686,16 +17694,16 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>1257</v>
-      </c>
       <c r="E338" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -17724,16 +17732,16 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>1260</v>
-      </c>
       <c r="E339" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -17762,16 +17770,16 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>1264</v>
       </c>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -17800,16 +17808,16 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>1268</v>
       </c>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -17838,16 +17846,16 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>1271</v>
-      </c>
       <c r="E342" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -17876,16 +17884,16 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>1274</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1275</v>
       </c>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -17914,16 +17922,16 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>1279</v>
       </c>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -17952,16 +17960,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="E345" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>1283</v>
       </c>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -17990,16 +17998,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="E346" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>1287</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -18028,16 +18036,16 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="D347" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="E347" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>1291</v>
       </c>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -18066,16 +18074,16 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="E348" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>1295</v>
       </c>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -18104,16 +18112,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="E349" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>1299</v>
       </c>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
@@ -18142,16 +18150,16 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="E350" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>1303</v>
       </c>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
@@ -18180,16 +18188,16 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1307</v>
       </c>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
@@ -18218,16 +18226,16 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C352" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="D352" s="1" t="s">
+      <c r="E352" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1310</v>
       </c>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
@@ -18256,16 +18264,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="E353" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1314</v>
       </c>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -18294,16 +18302,16 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="E354" s="1" t="s">
         <v>1317</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1318</v>
       </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -18332,16 +18340,16 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>1321</v>
-      </c>
       <c r="E355" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
@@ -18370,16 +18378,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>1324</v>
-      </c>
       <c r="E356" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -18408,16 +18416,16 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1328</v>
       </c>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
@@ -18446,16 +18454,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1332</v>
       </c>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -18484,16 +18492,16 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E359" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1336</v>
       </c>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
@@ -18522,16 +18530,16 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="E360" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>1340</v>
       </c>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
@@ -18560,16 +18568,16 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C361" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D361" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="D361" s="1" t="s">
-        <v>1342</v>
-      </c>
       <c r="E361" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
@@ -18598,16 +18606,16 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="E362" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>1346</v>
       </c>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
@@ -18636,16 +18644,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="D363" s="1" t="s">
+      <c r="E363" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1350</v>
       </c>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -18674,16 +18682,16 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="D364" s="1" t="s">
+      <c r="E364" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>1354</v>
       </c>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
@@ -18712,16 +18720,16 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="D365" s="1" t="s">
-        <v>1357</v>
-      </c>
       <c r="E365" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -18750,16 +18758,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D366" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="E366" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1361</v>
       </c>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
@@ -18788,16 +18796,16 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D367" s="1" t="s">
-        <v>1364</v>
-      </c>
       <c r="E367" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -18826,16 +18834,16 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>1368</v>
       </c>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
@@ -18864,16 +18872,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>1371</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>1372</v>
       </c>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
@@ -18902,16 +18910,16 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>1375</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1376</v>
       </c>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
@@ -18940,16 +18948,16 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>1380</v>
       </c>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
@@ -18978,16 +18986,16 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="D372" s="1" t="s">
+      <c r="E372" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>1384</v>
       </c>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
@@ -19016,16 +19024,16 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C373" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>1386</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>1387</v>
       </c>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -19054,16 +19062,16 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="E374" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>1391</v>
       </c>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
@@ -19092,16 +19100,16 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>1395</v>
       </c>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -19130,16 +19138,16 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="E376" s="1" t="s">
         <v>1398</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>1399</v>
       </c>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
@@ -19168,16 +19176,16 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="C377" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="D377" s="1" t="s">
-        <v>1402</v>
-      </c>
       <c r="E377" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -19206,16 +19214,16 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="E378" s="1" t="s">
         <v>1405</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>1406</v>
       </c>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
@@ -19244,16 +19252,16 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="E379" s="1" t="s">
         <v>1409</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>1410</v>
       </c>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
@@ -19282,16 +19290,16 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="E380" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>1414</v>
       </c>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
@@ -19320,16 +19328,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="D381" s="1" t="s">
-        <v>1417</v>
-      </c>
       <c r="E381" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
@@ -19358,16 +19366,16 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="D382" s="1" t="s">
-        <v>1420</v>
-      </c>
       <c r="E382" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
@@ -19396,16 +19404,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="E383" s="1" t="s">
         <v>1423</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>1424</v>
       </c>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
@@ -19434,16 +19442,16 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>1428</v>
       </c>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
@@ -19472,16 +19480,16 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1432</v>
       </c>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
@@ -19510,16 +19518,16 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="E386" s="1" t="s">
         <v>1435</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>1436</v>
       </c>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -19548,16 +19556,16 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>1434</v>
-      </c>
       <c r="D387" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E387" s="1" t="s">
         <v>1437</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>1438</v>
       </c>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
@@ -19586,16 +19594,16 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="D388" s="1" t="s">
-        <v>1441</v>
-      </c>
       <c r="E388" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
@@ -19624,16 +19632,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="D389" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="D389" s="1" t="s">
+      <c r="E389" s="1" t="s">
         <v>1444</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>1445</v>
       </c>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
@@ -19662,16 +19670,16 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="E390" s="1" t="s">
         <v>1448</v>
-      </c>
-      <c r="E390" s="1" t="s">
-        <v>1449</v>
       </c>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
@@ -19700,16 +19708,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="E391" s="1" t="s">
         <v>1452</v>
-      </c>
-      <c r="E391" s="1" t="s">
-        <v>1453</v>
       </c>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
@@ -19738,16 +19746,16 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="E392" s="1" t="s">
         <v>1456</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>1457</v>
       </c>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
@@ -19776,16 +19784,16 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="E393" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>1461</v>
       </c>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
@@ -19814,16 +19822,16 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="D394" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="E394" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
@@ -19852,16 +19860,16 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="E395" s="1" t="s">
         <v>1467</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>1468</v>
       </c>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
@@ -19890,16 +19898,16 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="D396" s="1" t="s">
+      <c r="E396" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>1472</v>
       </c>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
@@ -19928,16 +19936,16 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="E397" s="1" t="s">
         <v>1475</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>1476</v>
       </c>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
@@ -19966,16 +19974,16 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="E398" s="1" t="s">
         <v>1479</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>1480</v>
       </c>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
@@ -20004,16 +20012,16 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="C399" s="1" t="s">
+      <c r="D399" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="E399" s="1" t="s">
         <v>1483</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>1484</v>
       </c>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
@@ -20042,16 +20050,16 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="D400" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="E400" s="1" t="s">
         <v>1487</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>1488</v>
       </c>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
@@ -20080,16 +20088,16 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="D401" s="1" t="s">
-        <v>1491</v>
-      </c>
       <c r="E401" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
@@ -20118,16 +20126,16 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="D402" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="E402" s="1" t="s">
         <v>1494</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>1495</v>
       </c>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
@@ -20156,16 +20164,16 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C403" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D403" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="D403" s="1" t="s">
+      <c r="E403" s="1" t="s">
         <v>1497</v>
-      </c>
-      <c r="E403" s="1" t="s">
-        <v>1498</v>
       </c>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
@@ -20194,16 +20202,16 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="E404" s="1" t="s">
         <v>1501</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>1502</v>
       </c>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
@@ -20232,16 +20240,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="C405" s="1" t="s">
+      <c r="D405" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="E405" s="1" t="s">
         <v>1505</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>1506</v>
       </c>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
@@ -20270,16 +20278,16 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="D406" s="1" t="s">
-        <v>1508</v>
-      </c>
       <c r="E406" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
@@ -20308,16 +20316,16 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="C407" s="1" t="s">
+      <c r="D407" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="D407" s="1" t="s">
+      <c r="E407" s="1" t="s">
         <v>1511</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>1512</v>
       </c>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
@@ -20346,16 +20354,16 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="C408" s="1" t="s">
+      <c r="D408" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="D408" s="1" t="s">
+      <c r="E408" s="1" t="s">
         <v>1515</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>1516</v>
       </c>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
@@ -20384,16 +20392,16 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="C409" s="1" t="s">
+      <c r="D409" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="D409" s="1" t="s">
+      <c r="E409" s="1" t="s">
         <v>1519</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>1520</v>
       </c>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
@@ -20422,16 +20430,16 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="D410" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="D410" s="1" t="s">
-        <v>1523</v>
-      </c>
       <c r="E410" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>

--- a/Documents/Philos FlashCards.xlsx
+++ b/Documents/Philos FlashCards.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/powerspots/GameStudio/WisdomSeekers/Mindscapes/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D668BA3C-3A93-F946-AF67-D501E739D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B32B6C7-C975-D944-BD34-A96B4A2EE412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Flash_Cards" sheetId="1" r:id="rId1"/>
+    <sheet name="FlashCards" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/Documents/Philos FlashCards.xlsx
+++ b/Documents/Philos FlashCards.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/powerspots/GameStudio/WisdomSeekers/Mindscapes/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B32B6C7-C975-D944-BD34-A96B4A2EE412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C9F44F-34E1-834E-A052-C26AA371D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FlashCards" sheetId="1" r:id="rId1"/>
+    <sheet name="FlashCard" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,9 +31,6 @@
     <t>Back</t>
   </si>
   <si>
-    <t>Philosopher's Word</t>
-  </si>
-  <si>
     <t>Abductive Reasoning</t>
   </si>
   <si>
@@ -4598,6 +4595,9 @@
   </si>
   <si>
     <t>GDE_FIELD_TYPES</t>
+  </si>
+  <si>
+    <t>Word</t>
   </si>
 </sst>
 </file>
@@ -4871,8 +4871,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4887,7 +4887,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>1525</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4925,19 +4925,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4966,16 +4966,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5004,16 +5004,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5042,16 +5042,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5080,16 +5080,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -5118,16 +5118,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5156,16 +5156,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5194,16 +5194,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5232,16 +5232,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5270,16 +5270,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5308,16 +5308,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5346,16 +5346,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5384,16 +5384,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5422,16 +5422,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -5460,16 +5460,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5498,16 +5498,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5536,16 +5536,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5574,16 +5574,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5612,16 +5612,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5650,16 +5650,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5688,16 +5688,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -5726,16 +5726,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -5764,16 +5764,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -5802,16 +5802,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -5840,16 +5840,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -5878,16 +5878,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -5916,16 +5916,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -5954,16 +5954,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -5992,16 +5992,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -6030,16 +6030,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -6068,16 +6068,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -6106,16 +6106,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -6144,16 +6144,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -6182,16 +6182,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -6220,16 +6220,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -6258,16 +6258,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -6296,16 +6296,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -6334,16 +6334,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -6372,16 +6372,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6410,16 +6410,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6448,16 +6448,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6486,16 +6486,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -6524,16 +6524,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -6562,16 +6562,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -6600,16 +6600,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -6638,16 +6638,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -6676,16 +6676,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6714,16 +6714,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6752,16 +6752,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -6790,16 +6790,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -6828,16 +6828,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -6866,16 +6866,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -6904,16 +6904,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -6942,16 +6942,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -6980,16 +6980,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -7018,16 +7018,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -7056,16 +7056,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -7094,16 +7094,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -7132,16 +7132,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -7170,16 +7170,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -7208,16 +7208,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -7246,16 +7246,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -7284,16 +7284,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -7322,16 +7322,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -7360,16 +7360,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -7398,16 +7398,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -7436,16 +7436,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -7474,16 +7474,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -7512,16 +7512,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -7550,16 +7550,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -7588,16 +7588,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -7626,16 +7626,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -7664,16 +7664,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -7702,16 +7702,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -7740,16 +7740,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -7778,16 +7778,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -7816,16 +7816,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -7854,16 +7854,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -7892,16 +7892,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -7930,16 +7930,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -7968,16 +7968,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -8006,16 +8006,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -8044,16 +8044,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8082,16 +8082,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8120,16 +8120,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -8158,16 +8158,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8196,16 +8196,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8234,16 +8234,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E89" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8272,16 +8272,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8310,16 +8310,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -8348,16 +8348,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -8386,16 +8386,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -8424,16 +8424,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -8462,16 +8462,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -8500,16 +8500,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -8538,16 +8538,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -8576,16 +8576,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -8614,16 +8614,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -8652,16 +8652,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -8690,16 +8690,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -8728,16 +8728,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -8766,16 +8766,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -8804,16 +8804,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -8842,16 +8842,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -8880,16 +8880,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -8918,16 +8918,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -8956,16 +8956,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="D108" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -8994,16 +8994,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -9032,16 +9032,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -9070,16 +9070,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -9108,16 +9108,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -9146,16 +9146,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -9184,16 +9184,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -9222,16 +9222,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -9260,16 +9260,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -9298,16 +9298,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -9336,16 +9336,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -9374,16 +9374,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -9412,16 +9412,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -9450,16 +9450,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -9488,16 +9488,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -9526,16 +9526,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -9564,16 +9564,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -9602,16 +9602,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -9640,16 +9640,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -9678,16 +9678,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -9716,16 +9716,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -9754,16 +9754,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -9792,16 +9792,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -9830,16 +9830,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9868,16 +9868,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -9906,16 +9906,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -9944,16 +9944,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -9982,16 +9982,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -10020,16 +10020,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -10058,16 +10058,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -10096,16 +10096,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -10134,16 +10134,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -10172,16 +10172,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -10210,16 +10210,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="E141" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -10248,16 +10248,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -10286,16 +10286,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -10324,16 +10324,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -10362,16 +10362,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -10400,16 +10400,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -10438,16 +10438,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -10476,16 +10476,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -10514,16 +10514,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -10552,16 +10552,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -10590,16 +10590,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -10628,16 +10628,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -10666,16 +10666,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -10704,16 +10704,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -10742,16 +10742,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="E155" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -10780,16 +10780,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -10818,16 +10818,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -10856,16 +10856,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -10894,16 +10894,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -10932,16 +10932,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -10970,16 +10970,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -11008,16 +11008,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E162" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -11046,16 +11046,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="E163" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -11084,16 +11084,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -11122,16 +11122,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -11160,16 +11160,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -11198,16 +11198,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -11236,16 +11236,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -11274,16 +11274,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -11312,16 +11312,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -11350,16 +11350,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -11388,16 +11388,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -11426,16 +11426,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -11464,16 +11464,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -11502,16 +11502,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="E175" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -11540,16 +11540,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -11578,16 +11578,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -11616,16 +11616,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -11654,16 +11654,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -11692,16 +11692,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -11730,16 +11730,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -11768,16 +11768,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -11806,16 +11806,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -11844,16 +11844,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -11882,16 +11882,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -11920,16 +11920,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -11958,16 +11958,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -11996,16 +11996,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="E188" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -12034,16 +12034,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -12072,16 +12072,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -12110,16 +12110,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -12148,16 +12148,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="E192" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -12186,16 +12186,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -12224,16 +12224,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="E194" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -12262,16 +12262,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -12300,16 +12300,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -12338,16 +12338,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -12376,16 +12376,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -12414,16 +12414,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="D199" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -12452,16 +12452,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -12490,16 +12490,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -12528,16 +12528,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -12566,16 +12566,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -12604,16 +12604,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -12642,16 +12642,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -12680,16 +12680,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>766</v>
-      </c>
       <c r="E206" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -12718,16 +12718,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -12756,16 +12756,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -12794,16 +12794,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -12832,16 +12832,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -12870,16 +12870,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -12908,16 +12908,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -12946,16 +12946,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>792</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -12984,16 +12984,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -13022,16 +13022,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -13060,16 +13060,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -13098,16 +13098,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -13136,16 +13136,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="E218" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -13174,16 +13174,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -13212,16 +13212,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -13250,16 +13250,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -13288,16 +13288,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>826</v>
-      </c>
       <c r="E222" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -13326,16 +13326,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -13364,16 +13364,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -13402,16 +13402,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -13440,16 +13440,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -13478,16 +13478,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -13516,16 +13516,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -13554,16 +13554,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -13592,16 +13592,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>856</v>
-      </c>
       <c r="E230" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -13630,16 +13630,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -13668,16 +13668,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -13706,16 +13706,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -13744,16 +13744,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>871</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -13782,16 +13782,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>875</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -13820,16 +13820,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>873</v>
-      </c>
       <c r="D236" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -13858,16 +13858,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="E237" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -13896,16 +13896,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -13934,16 +13934,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -13972,16 +13972,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -14010,16 +14010,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -14048,16 +14048,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -14086,16 +14086,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>904</v>
-      </c>
       <c r="E243" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -14124,16 +14124,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -14162,16 +14162,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="E245" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -14200,16 +14200,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C246" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -14238,16 +14238,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -14276,16 +14276,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>920</v>
-      </c>
       <c r="E248" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -14314,16 +14314,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -14352,16 +14352,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>927</v>
-      </c>
       <c r="E250" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -14390,16 +14390,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="E251" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -14428,16 +14428,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C252" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -14466,16 +14466,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -14504,16 +14504,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -14542,16 +14542,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -14580,13 +14580,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -14616,16 +14616,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>952</v>
       </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -14654,16 +14654,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>955</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -14692,16 +14692,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -14730,16 +14730,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -14768,16 +14768,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -14806,16 +14806,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>970</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -14844,16 +14844,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>974</v>
       </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -14882,16 +14882,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -14920,16 +14920,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>981</v>
-      </c>
       <c r="E265" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -14958,16 +14958,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>985</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -14996,16 +14996,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -15034,16 +15034,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -15072,16 +15072,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -15110,16 +15110,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -15148,16 +15148,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="E271" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -15186,16 +15186,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>1007</v>
       </c>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -15224,16 +15224,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -15262,16 +15262,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>1015</v>
       </c>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -15300,16 +15300,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -15338,16 +15338,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -15376,16 +15376,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -15414,16 +15414,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -15452,16 +15452,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>1035</v>
       </c>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -15490,16 +15490,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -15528,16 +15528,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -15566,16 +15566,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>1047</v>
       </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -15604,16 +15604,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="E283" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -15642,16 +15642,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="E284" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -15680,16 +15680,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="E285" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -15718,16 +15718,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -15756,16 +15756,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -15794,16 +15794,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -15832,16 +15832,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C289" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>1070</v>
-      </c>
       <c r="E289" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -15870,16 +15870,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C290" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -15908,16 +15908,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>1077</v>
       </c>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -15946,16 +15946,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -15984,16 +15984,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -16022,16 +16022,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="E294" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -16060,16 +16060,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -16098,16 +16098,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -16136,16 +16136,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>1099</v>
       </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -16174,16 +16174,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>1102</v>
-      </c>
       <c r="E298" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -16212,16 +16212,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>1105</v>
-      </c>
       <c r="E299" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -16250,16 +16250,16 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>1109</v>
       </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -16288,16 +16288,16 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -16326,16 +16326,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>1117</v>
       </c>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -16364,16 +16364,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -16402,16 +16402,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="E304" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>1125</v>
       </c>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -16440,16 +16440,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>1128</v>
-      </c>
       <c r="E305" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -16478,16 +16478,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="E306" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>1132</v>
       </c>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -16516,16 +16516,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -16554,16 +16554,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="E308" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -16592,16 +16592,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="E309" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -16630,16 +16630,16 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>1148</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -16668,16 +16668,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1152</v>
       </c>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -16706,16 +16706,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="E312" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1156</v>
       </c>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -16744,16 +16744,16 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1160</v>
       </c>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -16782,16 +16782,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -16820,16 +16820,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="E315" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1168</v>
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -16858,16 +16858,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1172</v>
       </c>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -16896,16 +16896,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>1176</v>
       </c>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -16934,16 +16934,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C318" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -16972,16 +16972,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>1183</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -17010,16 +17010,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>1187</v>
       </c>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -17048,16 +17048,16 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>1191</v>
       </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -17086,16 +17086,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="E322" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>1195</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -17124,16 +17124,16 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>1199</v>
       </c>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -17162,16 +17162,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="E324" s="1" t="s">
         <v>1202</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>1203</v>
       </c>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -17200,16 +17200,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="E325" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>1207</v>
       </c>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -17238,16 +17238,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>1211</v>
       </c>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -17276,16 +17276,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>1215</v>
       </c>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -17314,16 +17314,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>1218</v>
-      </c>
       <c r="E328" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -17352,16 +17352,16 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="E329" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>1222</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -17390,16 +17390,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>1226</v>
       </c>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -17428,16 +17428,16 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="E331" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>1230</v>
       </c>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -17466,16 +17466,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="E332" s="1" t="s">
         <v>1233</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>1234</v>
       </c>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -17504,16 +17504,16 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>1238</v>
       </c>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -17542,16 +17542,16 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="E334" s="1" t="s">
         <v>1241</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>1242</v>
       </c>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -17580,16 +17580,16 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>1246</v>
       </c>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -17618,16 +17618,16 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>1249</v>
-      </c>
       <c r="E336" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -17656,16 +17656,16 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>1253</v>
       </c>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -17694,16 +17694,16 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>1256</v>
-      </c>
       <c r="E338" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -17732,16 +17732,16 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>1259</v>
-      </c>
       <c r="E339" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -17770,16 +17770,16 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>1263</v>
       </c>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -17808,16 +17808,16 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>1267</v>
       </c>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -17846,16 +17846,16 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>1270</v>
-      </c>
       <c r="E342" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -17884,16 +17884,16 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1274</v>
       </c>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -17922,16 +17922,16 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>1277</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>1278</v>
       </c>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -17960,16 +17960,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="E345" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>1282</v>
       </c>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -17998,16 +17998,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="E346" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -18036,16 +18036,16 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="D347" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="E347" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>1290</v>
       </c>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -18074,16 +18074,16 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="E348" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>1294</v>
       </c>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -18112,16 +18112,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="E349" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>1298</v>
       </c>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
@@ -18150,16 +18150,16 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="E350" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>1302</v>
       </c>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
@@ -18188,16 +18188,16 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>1305</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1306</v>
       </c>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
@@ -18226,16 +18226,16 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C352" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="D352" s="1" t="s">
+      <c r="E352" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1309</v>
       </c>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
@@ -18264,16 +18264,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="E353" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1313</v>
       </c>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -18302,16 +18302,16 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="E354" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1317</v>
       </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -18340,16 +18340,16 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>1320</v>
-      </c>
       <c r="E355" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
@@ -18378,16 +18378,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>1323</v>
-      </c>
       <c r="E356" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -18416,16 +18416,16 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
@@ -18454,16 +18454,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1331</v>
       </c>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -18492,16 +18492,16 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E359" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1335</v>
       </c>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
@@ -18530,16 +18530,16 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="E360" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>1339</v>
       </c>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
@@ -18568,16 +18568,16 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C361" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D361" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="D361" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="E361" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
@@ -18606,16 +18606,16 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="E362" s="1" t="s">
         <v>1344</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>1345</v>
       </c>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
@@ -18644,16 +18644,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="D363" s="1" t="s">
+      <c r="E363" s="1" t="s">
         <v>1348</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1349</v>
       </c>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -18682,16 +18682,16 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="D364" s="1" t="s">
+      <c r="E364" s="1" t="s">
         <v>1352</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>1353</v>
       </c>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
@@ -18720,16 +18720,16 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="D365" s="1" t="s">
-        <v>1356</v>
-      </c>
       <c r="E365" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -18758,16 +18758,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D366" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="E366" s="1" t="s">
         <v>1359</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1360</v>
       </c>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
@@ -18796,16 +18796,16 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="D367" s="1" t="s">
-        <v>1363</v>
-      </c>
       <c r="E367" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -18834,16 +18834,16 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>1367</v>
       </c>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
@@ -18872,16 +18872,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>1370</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>1371</v>
       </c>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
@@ -18910,16 +18910,16 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>1374</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1375</v>
       </c>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
@@ -18948,16 +18948,16 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>1379</v>
       </c>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
@@ -18986,16 +18986,16 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="D372" s="1" t="s">
+      <c r="E372" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>1383</v>
       </c>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
@@ -19024,16 +19024,16 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C373" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>1386</v>
       </c>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -19062,16 +19062,16 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="E374" s="1" t="s">
         <v>1389</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>1390</v>
       </c>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
@@ -19100,16 +19100,16 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="1" t="s">
         <v>1393</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>1394</v>
       </c>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -19138,16 +19138,16 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="E376" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>1398</v>
       </c>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
@@ -19176,16 +19176,16 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="C377" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="D377" s="1" t="s">
-        <v>1401</v>
-      </c>
       <c r="E377" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -19214,16 +19214,16 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="E378" s="1" t="s">
         <v>1404</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>1405</v>
       </c>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
@@ -19252,16 +19252,16 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="E379" s="1" t="s">
         <v>1408</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>1409</v>
       </c>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
@@ -19290,16 +19290,16 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="E380" s="1" t="s">
         <v>1412</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>1413</v>
       </c>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
@@ -19328,16 +19328,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="D381" s="1" t="s">
-        <v>1416</v>
-      </c>
       <c r="E381" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
@@ -19366,16 +19366,16 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="D382" s="1" t="s">
-        <v>1419</v>
-      </c>
       <c r="E382" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
@@ -19404,16 +19404,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="E383" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>1423</v>
       </c>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
@@ -19442,16 +19442,16 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>1426</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>1427</v>
       </c>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
@@ -19480,16 +19480,16 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1431</v>
       </c>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
@@ -19518,16 +19518,16 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="E386" s="1" t="s">
         <v>1434</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>1435</v>
       </c>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -19556,16 +19556,16 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>1433</v>
-      </c>
       <c r="D387" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E387" s="1" t="s">
         <v>1436</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>1437</v>
       </c>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
@@ -19594,16 +19594,16 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="D388" s="1" t="s">
-        <v>1440</v>
-      </c>
       <c r="E388" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
@@ -19632,16 +19632,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="D389" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="D389" s="1" t="s">
+      <c r="E389" s="1" t="s">
         <v>1443</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>1444</v>
       </c>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
@@ -19670,16 +19670,16 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="E390" s="1" t="s">
         <v>1447</v>
-      </c>
-      <c r="E390" s="1" t="s">
-        <v>1448</v>
       </c>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
@@ -19708,16 +19708,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="E391" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="E391" s="1" t="s">
-        <v>1452</v>
       </c>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
@@ -19746,16 +19746,16 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="E392" s="1" t="s">
         <v>1455</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>1456</v>
       </c>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
@@ -19784,16 +19784,16 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="E393" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>1460</v>
       </c>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
@@ -19822,16 +19822,16 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="D394" s="1" t="s">
-        <v>1463</v>
-      </c>
       <c r="E394" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
@@ -19860,16 +19860,16 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="E395" s="1" t="s">
         <v>1466</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>1467</v>
       </c>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
@@ -19898,16 +19898,16 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="D396" s="1" t="s">
+      <c r="E396" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>1471</v>
       </c>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
@@ -19936,16 +19936,16 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="E397" s="1" t="s">
         <v>1474</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>1475</v>
       </c>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
@@ -19974,16 +19974,16 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="E398" s="1" t="s">
         <v>1478</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>1479</v>
       </c>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
@@ -20012,16 +20012,16 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="C399" s="1" t="s">
+      <c r="D399" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="E399" s="1" t="s">
         <v>1482</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>1483</v>
       </c>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
@@ -20050,16 +20050,16 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="D400" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="E400" s="1" t="s">
         <v>1486</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>1487</v>
       </c>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
@@ -20088,16 +20088,16 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="D401" s="1" t="s">
-        <v>1490</v>
-      </c>
       <c r="E401" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
@@ -20126,16 +20126,16 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="D402" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="E402" s="1" t="s">
         <v>1493</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>1494</v>
       </c>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
@@ -20164,16 +20164,16 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C403" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D403" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="D403" s="1" t="s">
+      <c r="E403" s="1" t="s">
         <v>1496</v>
-      </c>
-      <c r="E403" s="1" t="s">
-        <v>1497</v>
       </c>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
@@ -20202,16 +20202,16 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="E404" s="1" t="s">
         <v>1500</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>1501</v>
       </c>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
@@ -20240,16 +20240,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="C405" s="1" t="s">
+      <c r="D405" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="E405" s="1" t="s">
         <v>1504</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>1505</v>
       </c>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
@@ -20278,16 +20278,16 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="D406" s="1" t="s">
-        <v>1507</v>
-      </c>
       <c r="E406" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
@@ -20316,16 +20316,16 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="C407" s="1" t="s">
+      <c r="D407" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="D407" s="1" t="s">
+      <c r="E407" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>1511</v>
       </c>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
@@ -20354,16 +20354,16 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="C408" s="1" t="s">
+      <c r="D408" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="D408" s="1" t="s">
+      <c r="E408" s="1" t="s">
         <v>1514</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>1515</v>
       </c>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
@@ -20392,16 +20392,16 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="C409" s="1" t="s">
+      <c r="D409" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="D409" s="1" t="s">
+      <c r="E409" s="1" t="s">
         <v>1518</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>1519</v>
       </c>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
@@ -20430,16 +20430,16 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="D410" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="D410" s="1" t="s">
-        <v>1522</v>
-      </c>
       <c r="E410" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
@@ -36985,5 +36985,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>